--- a/Tetris로직.xlsx
+++ b/Tetris로직.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munop\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munop\OneDrive\문서\GitHub\Simple-Tetris\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +137,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -144,12 +152,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -177,30 +179,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
+        <fgColor rgb="FFA050C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF28C828"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -223,13 +231,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,52 +330,82 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -298,6 +416,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF28C828"/>
+      <color rgb="FFA050C8"/>
+      <color rgb="FF01AF22"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -355,7 +476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -390,7 +511,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -577,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -587,57 +708,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="4" spans="2:25" ht="33" x14ac:dyDescent="0.4">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="G4" s="19" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="G4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="L4" s="19" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="L4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="Q4" s="19" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="Q4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="G6" s="1"/>
@@ -646,22 +767,22 @@
       <c r="J6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="1"/>
@@ -672,33 +793,33 @@
       <c r="J7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="1"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O8" s="1"/>
@@ -706,14 +827,14 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="G9" s="1"/>
@@ -722,612 +843,607 @@
       <c r="J9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
     </row>
     <row r="11" spans="2:25" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="5"/>
+      <c r="J11" s="4"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="5"/>
+      <c r="O11" s="4"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="5"/>
-      <c r="V11" s="8" t="s">
+      <c r="T11" s="4"/>
+      <c r="V11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
     </row>
     <row r="12" spans="2:25" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="2"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="7" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="4"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="5"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="7" t="s">
+      <c r="J12" s="4"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="5"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="4"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="5"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="4"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
     </row>
     <row r="13" spans="2:25" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="4"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="5"/>
+      <c r="O13" s="4"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="R13" s="26"/>
       <c r="S13" s="1"/>
-      <c r="T13" s="5"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
+      <c r="T13" s="4"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
     </row>
     <row r="14" spans="2:25" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="5"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
+      <c r="J16" s="4"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="5"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9" t="s">
+      <c r="O16" s="4"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23" t="s">
         <v>1</v>
       </c>
       <c r="S16" s="1"/>
-      <c r="T16" s="5"/>
-      <c r="V16" s="8" t="s">
+      <c r="T16" s="4"/>
+      <c r="V16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="9" t="s">
+      <c r="E17" s="4"/>
+      <c r="G17" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="10"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="5"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="9" t="s">
+      <c r="J17" s="4"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23" t="s">
         <v>1</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="5"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
+      <c r="O17" s="4"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
       <c r="S17" s="1"/>
-      <c r="T17" s="5"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
+      <c r="T17" s="4"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="4"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="5"/>
+      <c r="O18" s="4"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="5"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
+      <c r="T18" s="4"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B21" s="12"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="5"/>
+      <c r="J21" s="4"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="5"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="5"/>
-      <c r="V21" s="8" t="s">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="4"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="4"/>
+      <c r="V21" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B22" s="12"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="5"/>
+      <c r="H22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="4"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="5"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="11" t="s">
+      <c r="M22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="4"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="6" t="s">
         <v>0</v>
       </c>
       <c r="S22" s="1"/>
-      <c r="T22" s="5"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
+      <c r="T22" s="4"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="4"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="5"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="4"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="5"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
+      <c r="T23" s="4"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="5"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="5"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="4"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="4"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="5"/>
+      <c r="O26" s="4"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="5"/>
-      <c r="V26" s="8" t="s">
+      <c r="T26" s="4"/>
+      <c r="V26" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
-      <c r="C27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="4"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="5"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="11" t="s">
+      <c r="H27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="4"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="6" t="s">
         <v>0</v>
       </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="5"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="11" t="s">
+      <c r="O27" s="4"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="6" t="s">
         <v>0</v>
       </c>
       <c r="S27" s="1"/>
-      <c r="T27" s="5"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
+      <c r="T27" s="4"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="5"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="4"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="5"/>
-      <c r="L28" s="14"/>
+      <c r="J28" s="4"/>
+      <c r="L28" s="24"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="O28" s="5"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="5"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
+      <c r="O28" s="4"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="4"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="4"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="15"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="5"/>
+      <c r="J31" s="4"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="5"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="5"/>
-      <c r="V31" s="8" t="s">
+      <c r="N31" s="29"/>
+      <c r="O31" s="4"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="4"/>
+      <c r="V31" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="5"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29" t="s">
         <v>14</v>
       </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="4"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="5"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="O32" s="5"/>
+      <c r="J32" s="4"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="N32" s="29"/>
+      <c r="O32" s="4"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="S32" s="15"/>
-      <c r="T32" s="5"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
+      <c r="R32" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="29"/>
+      <c r="T32" s="4"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B33" s="1"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="5"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="4"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="5"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="4"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="15"/>
+      <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="5"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
+      <c r="T33" s="4"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+    </row>
+    <row r="36" spans="2:25" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="5"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="5"/>
-      <c r="L36" s="1"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="4"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="4"/>
+      <c r="L36" s="8"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="5"/>
+      <c r="O36" s="4"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="16"/>
+      <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="5"/>
-      <c r="V36" s="8" t="s">
+      <c r="T36" s="4"/>
+      <c r="V36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="W36" s="8"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B37" s="16"/>
-      <c r="C37" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="5"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17" t="s">
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="12"/>
+    </row>
+    <row r="37" spans="2:25" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="4"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9" t="s">
         <v>0</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="5"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="5"/>
+      <c r="J37" s="4"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="4"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S37" s="16"/>
-      <c r="T37" s="5"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="R37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S37" s="8"/>
+      <c r="T37" s="4"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="15"/>
+    </row>
+    <row r="38" spans="2:25" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="5"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="4"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="17"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="5"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
+      <c r="J38" s="4"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="5"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="5"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
+      <c r="O38" s="4"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="4"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="15"/>
+    </row>
+    <row r="39" spans="2:25" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="V16:Y19"/>
-    <mergeCell ref="V21:Y24"/>
-    <mergeCell ref="V26:Y29"/>
-    <mergeCell ref="V31:Y34"/>
-    <mergeCell ref="V36:Y39"/>
     <mergeCell ref="B2:T2"/>
     <mergeCell ref="V6:Y9"/>
     <mergeCell ref="V11:Y14"/>
@@ -1335,6 +1451,11 @@
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="V36:Y39"/>
+    <mergeCell ref="V16:Y19"/>
+    <mergeCell ref="V21:Y24"/>
+    <mergeCell ref="V26:Y29"/>
+    <mergeCell ref="V31:Y34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
